--- a/app/Licenciatura_em_Psicologia_Escolar_e_de_Necessidades_Educativas_Especiais.xlsx
+++ b/app/Licenciatura_em_Psicologia_Escolar_e_de_Necessidades_Educativas_Especiais.xlsx
@@ -32,11 +32,10 @@
     <sheet name="20153936" sheetId="22" r:id="rId25"/>
     <sheet name="20153950" sheetId="23" r:id="rId26"/>
     <sheet name="20153938" sheetId="24" r:id="rId27"/>
-    <sheet name="20154488" sheetId="25" r:id="rId28"/>
-    <sheet name="20153953" sheetId="26" r:id="rId29"/>
-    <sheet name="20153935" sheetId="27" r:id="rId30"/>
-    <sheet name="Sheet2" sheetId="28" r:id="rId31"/>
-    <sheet name="Sheet3" sheetId="29" r:id="rId32"/>
+    <sheet name="20153953" sheetId="25" r:id="rId28"/>
+    <sheet name="20153935" sheetId="26" r:id="rId29"/>
+    <sheet name="Sheet2" sheetId="27" r:id="rId30"/>
+    <sheet name="Sheet3" sheetId="28" r:id="rId31"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="236">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -193,9 +192,6 @@
     <t>Laura Jose Uelissene</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>Feminino</t>
   </si>
   <si>
@@ -232,9 +228,6 @@
     <t>Alice Fazenda</t>
   </si>
   <si>
-    <t>Cidade de Chimoio</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -262,9 +255,6 @@
     <t>Madalena Chicotela</t>
   </si>
   <si>
-    <t>Distrito de Chibabava</t>
-  </si>
-  <si>
     <t>070601697177B</t>
   </si>
   <si>
@@ -289,9 +279,6 @@
     <t>Mariana Emiliano</t>
   </si>
   <si>
-    <t>Cidade de Lichinga</t>
-  </si>
-  <si>
     <t>03170236280Q</t>
   </si>
   <si>
@@ -316,9 +303,6 @@
     <t>Maria Feliciano Langa</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>110100298631I</t>
   </si>
   <si>
@@ -343,9 +327,6 @@
     <t>Ecineta Ismael Mate</t>
   </si>
   <si>
-    <t>Distrito de Chókwé</t>
-  </si>
-  <si>
     <t>090601467889M</t>
   </si>
   <si>
@@ -388,9 +369,6 @@
     <t>Artemisa Ivone Ouana</t>
   </si>
   <si>
-    <t>Distrito de Marracuene</t>
-  </si>
-  <si>
     <t>110104263347B</t>
   </si>
   <si>
@@ -439,9 +417,6 @@
     <t xml:space="preserve">Fatima Tarruba Abudo </t>
   </si>
   <si>
-    <t>Cidade de Quelimane</t>
-  </si>
-  <si>
     <t>040500933200N</t>
   </si>
   <si>
@@ -490,9 +465,6 @@
     <t>Lucia Vicente Langa</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>110102501862A</t>
   </si>
   <si>
@@ -517,9 +489,6 @@
     <t>Clara Pedro Langa</t>
   </si>
   <si>
-    <t>Distrito Municipal de Nlhamankulu</t>
-  </si>
-  <si>
     <t>110200397017F</t>
   </si>
   <si>
@@ -586,9 +555,6 @@
     <t>Renata Lucas</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>110100422839B</t>
   </si>
   <si>
@@ -634,9 +600,6 @@
     <t>Joaquina Fernando Muianga</t>
   </si>
   <si>
-    <t>Distrito Municipal Katembe</t>
-  </si>
-  <si>
     <t>Cartao de Eleitor</t>
   </si>
   <si>
@@ -661,9 +624,6 @@
     <t>Fernanda Maticula</t>
   </si>
   <si>
-    <t>Distrito de Mocuba</t>
-  </si>
-  <si>
     <t>041104761624I</t>
   </si>
   <si>
@@ -752,15 +712,6 @@
   </si>
   <si>
     <t>+258840521126</t>
-  </si>
-  <si>
-    <t>Chilaule</t>
-  </si>
-  <si>
-    <t>Ana Alfredo</t>
-  </si>
-  <si>
-    <t>+</t>
   </si>
   <si>
     <t>Chacha</t>
@@ -2059,7 +2010,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2075,7 +2026,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2091,7 +2042,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2107,7 +2058,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2123,7 +2074,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2138,9 +2089,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2148,7 +2097,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2159,7 +2108,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2168,7 +2117,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2180,7 +2129,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2188,7 +2137,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2284,7 +2233,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2327,7 +2276,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2654,7 +2603,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2670,7 +2619,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2686,7 +2635,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2702,7 +2651,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2718,7 +2667,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2733,9 +2682,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>131</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2743,7 +2690,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2754,7 +2701,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2763,7 +2710,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2775,7 +2722,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2783,7 +2730,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2879,7 +2826,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2922,7 +2869,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3249,7 +3196,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3265,7 +3212,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3281,7 +3228,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3297,7 +3244,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3313,7 +3260,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3328,9 +3275,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3338,7 +3283,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3349,7 +3294,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3358,7 +3303,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3370,7 +3315,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3378,7 +3323,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3474,7 +3419,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3517,7 +3462,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3844,7 +3789,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3860,7 +3805,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3876,7 +3821,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3892,7 +3837,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3908,7 +3853,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3923,9 +3868,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>148</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3933,7 +3876,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3944,7 +3887,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3953,7 +3896,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3965,7 +3908,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3973,7 +3916,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4069,7 +4012,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4112,7 +4055,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4439,7 +4382,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4455,7 +4398,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4471,7 +4414,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4487,7 +4430,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4503,7 +4446,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4518,9 +4461,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>157</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4528,7 +4469,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4539,7 +4480,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4548,7 +4489,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4560,7 +4501,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4568,7 +4509,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4664,7 +4605,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4707,7 +4648,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5034,7 +4975,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5050,7 +4991,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5066,7 +5007,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5082,7 +5023,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5098,7 +5039,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5113,9 +5054,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>148</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5123,7 +5062,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5134,7 +5073,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5143,7 +5082,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5155,7 +5094,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5163,7 +5102,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5259,7 +5198,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5302,7 +5241,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5629,7 +5568,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5645,7 +5584,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5661,7 +5600,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5677,7 +5616,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5693,7 +5632,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5708,9 +5647,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>148</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5718,7 +5655,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5729,7 +5666,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5738,7 +5675,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5750,7 +5687,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5854,7 +5791,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5897,7 +5834,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6224,7 +6161,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6240,7 +6177,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6256,7 +6193,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6272,7 +6209,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6288,7 +6225,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6303,9 +6240,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>180</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6313,7 +6248,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6324,7 +6259,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6333,7 +6268,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6345,7 +6280,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6353,7 +6288,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6449,7 +6384,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6492,7 +6427,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6819,7 +6754,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6835,7 +6770,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6851,7 +6786,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6867,7 +6802,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6883,7 +6818,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6898,9 +6833,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>157</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6908,7 +6841,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6919,7 +6852,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6928,7 +6861,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6940,7 +6873,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6948,7 +6881,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7044,7 +6977,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7087,7 +7020,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7414,7 +7347,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7430,7 +7363,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7446,7 +7379,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7462,7 +7395,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7478,7 +7411,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7493,9 +7426,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>196</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7503,7 +7434,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7514,7 +7445,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7523,7 +7454,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7535,7 +7466,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7543,7 +7474,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7639,7 +7570,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7682,7 +7613,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8088,9 +8019,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8098,7 +8027,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8109,7 +8038,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8118,7 +8047,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8130,7 +8059,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8138,7 +8067,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8234,7 +8163,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8277,7 +8206,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8604,7 +8533,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8620,7 +8549,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8636,7 +8565,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8652,7 +8581,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8668,7 +8597,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8683,9 +8612,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>205</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8693,7 +8620,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8704,7 +8631,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8713,7 +8640,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8725,7 +8652,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8733,7 +8660,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8829,7 +8756,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8872,7 +8799,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9199,7 +9126,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9215,7 +9142,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9231,7 +9158,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9247,7 +9174,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9263,7 +9190,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9278,9 +9205,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>180</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9288,7 +9213,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9299,7 +9224,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9308,7 +9233,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9320,7 +9245,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9328,7 +9253,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9424,7 +9349,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9467,7 +9392,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9794,7 +9719,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9810,7 +9735,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9826,7 +9751,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9842,7 +9767,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9871,9 +9796,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>114</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9881,7 +9804,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9892,7 +9815,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9901,7 +9824,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9913,7 +9836,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9921,7 +9844,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10017,7 +9940,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10060,7 +9983,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10387,7 +10310,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10403,7 +10326,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10419,7 +10342,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10435,7 +10358,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10451,7 +10374,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10466,9 +10389,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10476,7 +10397,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10487,7 +10408,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10496,7 +10417,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10508,7 +10429,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10612,7 +10533,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10655,7 +10576,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10982,7 +10903,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10998,7 +10919,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11014,7 +10935,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11030,7 +10951,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11046,7 +10967,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11061,9 +10982,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11071,7 +10990,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11082,7 +11001,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11091,7 +11010,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11103,7 +11022,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11111,7 +11030,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11207,7 +11126,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11250,7 +11169,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11501,7 +11420,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -11551,7 +11472,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154488</v>
+        <v>20153953</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11575,7 +11496,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11591,7 +11512,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11606,7 +11527,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>225</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -11620,7 +11543,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>226</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -11634,7 +11559,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>227</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -11655,7 +11582,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -11664,14 +11593,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -11681,13 +11614,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>214</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20">
+        <v>3952500</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -11782,7 +11719,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11808,7 +11745,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2013</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -11822,7 +11761,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>118</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -12124,7 +12065,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153953</v>
+        <v>20153935</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12148,7 +12089,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12164,7 +12105,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12180,7 +12121,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12196,7 +12137,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12212,7 +12153,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12227,9 +12168,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>114</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12237,7 +12176,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12248,7 +12187,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12257,7 +12196,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12269,15 +12208,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>227</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>3952500</v>
+      <c r="H17" s="20" t="s">
+        <v>234</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12373,7 +12312,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12400,7 +12339,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -12416,7 +12355,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12619,601 +12558,6 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20153935</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>247</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>248</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>251</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2014</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
@@ -13237,7 +12581,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13394,7 +12738,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13410,7 +12754,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13426,7 +12770,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13442,7 +12786,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13458,7 +12802,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13473,9 +12817,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13483,7 +12825,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13494,7 +12836,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13503,7 +12845,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13515,7 +12857,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13523,7 +12865,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13619,7 +12961,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13662,7 +13004,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13989,7 +13331,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14005,7 +13347,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14021,7 +13363,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14037,7 +13379,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14053,7 +13395,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14068,9 +13410,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14078,7 +13418,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14089,7 +13429,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14098,7 +13438,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14110,7 +13450,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14118,7 +13458,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14214,7 +13554,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14257,7 +13597,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14584,7 +13924,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14600,7 +13940,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14616,7 +13956,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14632,7 +13972,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14648,7 +13988,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14663,9 +14003,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14673,7 +14011,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14684,7 +14022,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14693,7 +14031,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14705,7 +14043,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14713,7 +14051,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14809,7 +14147,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14852,7 +14190,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15179,7 +14517,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15195,7 +14533,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15211,7 +14549,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15227,7 +14565,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15243,7 +14581,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15258,9 +14596,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15268,7 +14604,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15279,7 +14615,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15288,7 +14624,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15300,7 +14636,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15308,7 +14644,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15404,7 +14740,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15447,7 +14783,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15774,7 +15110,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15790,7 +15126,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15806,7 +15142,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15822,7 +15158,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15838,7 +15174,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15853,9 +15189,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>99</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15863,7 +15197,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15874,7 +15208,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15883,7 +15217,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15895,7 +15229,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15903,7 +15237,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15999,7 +15333,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16042,7 +15376,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16369,7 +15703,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16385,7 +15719,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16401,7 +15735,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16417,7 +15751,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16433,7 +15767,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16448,9 +15782,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16458,7 +15790,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16469,7 +15801,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16478,7 +15810,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16490,7 +15822,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16498,7 +15830,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16594,7 +15926,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16637,7 +15969,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16964,7 +16296,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16980,7 +16312,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16996,7 +16328,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17026,7 +16358,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17041,9 +16373,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>114</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17051,7 +16381,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17062,7 +16392,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17071,7 +16401,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17083,7 +16413,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17091,7 +16421,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17187,7 +16517,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17230,7 +16560,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
